--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Gpc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.865470629309421</v>
+        <v>11.69390033333333</v>
       </c>
       <c r="N2">
-        <v>9.865470629309421</v>
+        <v>35.081701</v>
       </c>
       <c r="O2">
-        <v>0.1972993815302521</v>
+        <v>0.2143852009224814</v>
       </c>
       <c r="P2">
-        <v>0.1972993815302521</v>
+        <v>0.2308343738855075</v>
       </c>
       <c r="Q2">
-        <v>108.3643448882</v>
+        <v>8.192863512536666</v>
       </c>
       <c r="R2">
-        <v>108.3643448882</v>
+        <v>73.73577161282999</v>
       </c>
       <c r="S2">
-        <v>0.1444195897964259</v>
+        <v>0.008649531463507889</v>
       </c>
       <c r="T2">
-        <v>0.1444195897964259</v>
+        <v>0.01013878876769417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.6236749744037</v>
+        <v>31.143184</v>
       </c>
       <c r="N3">
-        <v>28.6236749744037</v>
+        <v>93.429552</v>
       </c>
       <c r="O3">
-        <v>0.5724443953839152</v>
+        <v>0.5709504586911971</v>
       </c>
       <c r="P3">
-        <v>0.5724443953839152</v>
+        <v>0.6147578801359564</v>
       </c>
       <c r="Q3">
-        <v>314.4082936782456</v>
+        <v>21.81922614224</v>
       </c>
       <c r="R3">
-        <v>314.4082936782456</v>
+        <v>196.37303528016</v>
       </c>
       <c r="S3">
-        <v>0.4190189757383088</v>
+        <v>0.02303542378533602</v>
       </c>
       <c r="T3">
-        <v>0.4190189757383088</v>
+        <v>0.02700161239012609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.5133964863478</v>
+        <v>0.04829733333333333</v>
       </c>
       <c r="N4">
-        <v>11.5133964863478</v>
+        <v>0.144892</v>
       </c>
       <c r="O4">
-        <v>0.2302562230858325</v>
+        <v>0.0008854388369611889</v>
       </c>
       <c r="P4">
-        <v>0.2302562230858325</v>
+        <v>0.0009533760663720083</v>
       </c>
       <c r="Q4">
-        <v>126.4654991698574</v>
+        <v>0.03383759470666667</v>
       </c>
       <c r="R4">
-        <v>126.4654991698574</v>
+        <v>0.30453835236</v>
       </c>
       <c r="S4">
-        <v>0.1685434035738803</v>
+        <v>3.572369289649282E-05</v>
       </c>
       <c r="T4">
-        <v>0.1685434035738803</v>
+        <v>4.187451977111214E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.02190891456284</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>4.02190891456284</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.268018030891385</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.268018030891385</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.865470629309421</v>
+        <v>11.660829</v>
       </c>
       <c r="N5">
-        <v>9.865470629309421</v>
+        <v>23.321658</v>
       </c>
       <c r="O5">
-        <v>0.1972993815302521</v>
+        <v>0.2137789015493603</v>
       </c>
       <c r="P5">
-        <v>0.1972993815302521</v>
+        <v>0.1534543699121641</v>
       </c>
       <c r="Q5">
-        <v>39.67802427037743</v>
+        <v>8.169693405690001</v>
       </c>
       <c r="R5">
-        <v>39.67802427037743</v>
+        <v>49.01816043414</v>
       </c>
       <c r="S5">
-        <v>0.05287979173382627</v>
+        <v>0.008625069861300502</v>
       </c>
       <c r="T5">
-        <v>0.05287979173382627</v>
+        <v>0.006740076947078621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H6">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J6">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6236749744037</v>
+        <v>11.69390033333333</v>
       </c>
       <c r="N6">
-        <v>28.6236749744037</v>
+        <v>35.081701</v>
       </c>
       <c r="O6">
-        <v>0.5724443953839152</v>
+        <v>0.2143852009224814</v>
       </c>
       <c r="P6">
-        <v>0.5724443953839152</v>
+        <v>0.2308343738855075</v>
       </c>
       <c r="Q6">
-        <v>115.1218135471035</v>
+        <v>138.7552997138711</v>
       </c>
       <c r="R6">
-        <v>115.1218135471035</v>
+        <v>1248.79769742484</v>
       </c>
       <c r="S6">
-        <v>0.1534254196456064</v>
+        <v>0.1464894818236756</v>
       </c>
       <c r="T6">
-        <v>0.1534254196456064</v>
+        <v>0.1717117186249158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H7">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J7">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5133964863478</v>
+        <v>31.143184</v>
       </c>
       <c r="N7">
-        <v>11.5133964863478</v>
+        <v>93.429552</v>
       </c>
       <c r="O7">
-        <v>0.2302562230858325</v>
+        <v>0.5709504586911971</v>
       </c>
       <c r="P7">
-        <v>0.2302562230858325</v>
+        <v>0.6147578801359564</v>
       </c>
       <c r="Q7">
-        <v>46.3058319653387</v>
+        <v>369.5329793128534</v>
       </c>
       <c r="R7">
-        <v>46.3058319653387</v>
+        <v>3325.79681381568</v>
       </c>
       <c r="S7">
-        <v>0.0617128195119523</v>
+        <v>0.3901306455892249</v>
       </c>
       <c r="T7">
-        <v>0.0617128195119523</v>
+        <v>0.4573024821195511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H8">
+        <v>35.59684</v>
+      </c>
+      <c r="I8">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J8">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.144892</v>
+      </c>
+      <c r="O8">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P8">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q8">
+        <v>0.5730774823644444</v>
+      </c>
+      <c r="R8">
+        <v>5.15769734128</v>
+      </c>
+      <c r="S8">
+        <v>0.0006050206630629459</v>
+      </c>
+      <c r="T8">
+        <v>0.0007091917901871776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H9">
+        <v>35.59684</v>
+      </c>
+      <c r="I9">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J9">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.660829</v>
+      </c>
+      <c r="N9">
+        <v>23.321658</v>
+      </c>
+      <c r="O9">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P9">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q9">
+        <v>138.36288806012</v>
+      </c>
+      <c r="R9">
+        <v>830.17732836072</v>
+      </c>
+      <c r="S9">
+        <v>0.1460751972526494</v>
+      </c>
+      <c r="T9">
+        <v>0.1141507356317334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.371554</v>
+      </c>
+      <c r="I10">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J10">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.69390033333333</v>
+      </c>
+      <c r="N10">
+        <v>35.081701</v>
+      </c>
+      <c r="O10">
+        <v>0.2143852009224814</v>
+      </c>
+      <c r="P10">
+        <v>0.2308343738855075</v>
+      </c>
+      <c r="Q10">
+        <v>5.346271925928221</v>
+      </c>
+      <c r="R10">
+        <v>48.11644733335399</v>
+      </c>
+      <c r="S10">
+        <v>0.005644271647516732</v>
+      </c>
+      <c r="T10">
+        <v>0.006616089926152931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.371554</v>
+      </c>
+      <c r="I11">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J11">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.143184</v>
+      </c>
+      <c r="N11">
+        <v>93.429552</v>
+      </c>
+      <c r="O11">
+        <v>0.5709504586911971</v>
+      </c>
+      <c r="P11">
+        <v>0.6147578801359564</v>
+      </c>
+      <c r="Q11">
+        <v>14.23818619597867</v>
+      </c>
+      <c r="R11">
+        <v>128.143675763808</v>
+      </c>
+      <c r="S11">
+        <v>0.0150318187648253</v>
+      </c>
+      <c r="T11">
+        <v>0.01761996425977696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.144892</v>
+      </c>
+      <c r="O12">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P12">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q12">
+        <v>0.02208080024088889</v>
+      </c>
+      <c r="R12">
+        <v>0.198727202168</v>
+      </c>
+      <c r="S12">
+        <v>2.331157795204955E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.732531417390937E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.660829</v>
+      </c>
+      <c r="N13">
+        <v>23.321658</v>
+      </c>
+      <c r="O13">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P13">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q13">
+        <v>5.331152219421999</v>
+      </c>
+      <c r="R13">
+        <v>31.986913316532</v>
+      </c>
+      <c r="S13">
+        <v>0.00562830917274287</v>
+      </c>
+      <c r="T13">
+        <v>0.004398252711719535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.298806</v>
+      </c>
+      <c r="I14">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J14">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.69390033333333</v>
+      </c>
+      <c r="N14">
+        <v>35.081701</v>
+      </c>
+      <c r="O14">
+        <v>0.2143852009224814</v>
+      </c>
+      <c r="P14">
+        <v>0.2308343738855075</v>
+      </c>
+      <c r="Q14">
+        <v>1.164735861000667</v>
+      </c>
+      <c r="R14">
+        <v>10.482622749006</v>
+      </c>
+      <c r="S14">
+        <v>0.00122965791642756</v>
+      </c>
+      <c r="T14">
+        <v>0.001441377712050749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.298806</v>
+      </c>
+      <c r="I15">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J15">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.143184</v>
+      </c>
+      <c r="N15">
+        <v>93.429552</v>
+      </c>
+      <c r="O15">
+        <v>0.5709504586911971</v>
+      </c>
+      <c r="P15">
+        <v>0.6147578801359564</v>
+      </c>
+      <c r="Q15">
+        <v>3.101923412768</v>
+      </c>
+      <c r="R15">
+        <v>27.917310714912</v>
+      </c>
+      <c r="S15">
+        <v>0.003274823767669657</v>
+      </c>
+      <c r="T15">
+        <v>0.00383867572155884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.298806</v>
+      </c>
+      <c r="I16">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J16">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.144892</v>
+      </c>
+      <c r="O16">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P16">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q16">
+        <v>0.004810510994666667</v>
+      </c>
+      <c r="R16">
+        <v>0.043294598952</v>
+      </c>
+      <c r="S16">
+        <v>5.078647549815843E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.953077915305678E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.660829</v>
+      </c>
+      <c r="N17">
+        <v>23.321658</v>
+      </c>
+      <c r="O17">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P17">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q17">
+        <v>1.161441890058</v>
+      </c>
+      <c r="R17">
+        <v>6.968651340348</v>
+      </c>
+      <c r="S17">
+        <v>0.00122618034045368</v>
+      </c>
+      <c r="T17">
+        <v>0.0009582009164626894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.2421405</v>
+      </c>
+      <c r="H18">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J18">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.69390033333333</v>
+      </c>
+      <c r="N18">
+        <v>35.081701</v>
+      </c>
+      <c r="O18">
+        <v>0.2143852009224814</v>
+      </c>
+      <c r="P18">
+        <v>0.2308343738855075</v>
+      </c>
+      <c r="Q18">
+        <v>49.60716820699682</v>
+      </c>
+      <c r="R18">
+        <v>297.643009241981</v>
+      </c>
+      <c r="S18">
+        <v>0.05237225807135364</v>
+      </c>
+      <c r="T18">
+        <v>0.04092639885469381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.2421405</v>
+      </c>
+      <c r="H19">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J19">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.143184</v>
+      </c>
+      <c r="N19">
+        <v>93.429552</v>
+      </c>
+      <c r="O19">
+        <v>0.5709504586911971</v>
+      </c>
+      <c r="P19">
+        <v>0.6147578801359564</v>
+      </c>
+      <c r="Q19">
+        <v>132.113762145352</v>
+      </c>
+      <c r="R19">
+        <v>792.6825728721119</v>
+      </c>
+      <c r="S19">
+        <v>0.1394777467841413</v>
+      </c>
+      <c r="T19">
+        <v>0.1089951456449434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.2421405</v>
+      </c>
+      <c r="H20">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J20">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.144892</v>
+      </c>
+      <c r="O20">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P20">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q20">
+        <v>0.2048840737753333</v>
+      </c>
+      <c r="R20">
+        <v>1.229304442652</v>
+      </c>
+      <c r="S20">
+        <v>0.0002163042554998851</v>
+      </c>
+      <c r="T20">
+        <v>0.0001690313643245034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.2421405</v>
+      </c>
+      <c r="H21">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J21">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.660829</v>
+      </c>
+      <c r="N21">
+        <v>23.321658</v>
+      </c>
+      <c r="O21">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P21">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q21">
+        <v>49.46687496447449</v>
+      </c>
+      <c r="R21">
+        <v>197.867499857898</v>
+      </c>
+      <c r="S21">
+        <v>0.05222414492221384</v>
+      </c>
+      <c r="T21">
+        <v>0.02720710370516985</v>
       </c>
     </row>
   </sheetData>
